--- a/Automation Plan.xlsx
+++ b/Automation Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>CI &amp; Qualif</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Path independent</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>manpriya</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Bhuwnesh</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Mayank</t>
   </si>
 </sst>
 </file>
@@ -150,13 +168,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +480,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,39 +496,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1"/>
@@ -518,22 +536,22 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
@@ -541,22 +559,22 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -564,14 +582,18 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -579,14 +601,18 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -594,8 +620,12 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
